--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Test Features:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>7.) Check axf, map etc</t>
+  </si>
+  <si>
+    <t>MPU</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,49 +469,54 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
